--- a/docs/source/IaC-Jenkins-Worksheet.xlsx
+++ b/docs/source/IaC-Jenkins-Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethwsayers/Development/linux-foundation/branches/main/documentation/docs/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethwsayers/Development/linux-foundation/branches/develop/documentation-develop/docs/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1812D746-212E-B14B-BB3D-4F6313D1E542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{899FFA67-066E-7448-8ABF-9A43D4349839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Action</t>
   </si>
@@ -53,10 +53,94 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Setup Forked Repository</t>
-  </si>
-  <si>
     <t>Put the Config File into the openidl-config directory</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Setup Forked Repository from openidl-org/openidl-aais-gitops</t>
+  </si>
+  <si>
+    <t>Follow best practices in github</t>
+  </si>
+  <si>
+    <t>Setup terraform token</t>
+  </si>
+  <si>
+    <t>Create K8S workspace</t>
+  </si>
+  <si>
+    <t>Create AWS workspace</t>
+  </si>
+  <si>
+    <t>Enter terraform variables</t>
+  </si>
+  <si>
+    <t>Setup terrform IAM Role</t>
+  </si>
+  <si>
+    <t>Note the aws account number</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>AWS Account Number</t>
+  </si>
+  <si>
+    <t>terraform role name</t>
+  </si>
+  <si>
+    <t>terraform automation policy</t>
+  </si>
+  <si>
+    <t>terraform role arn</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Setup IAM terraform user</t>
+  </si>
+  <si>
+    <t>terraform user name</t>
+  </si>
+  <si>
+    <t>terraform user access key ID</t>
+  </si>
+  <si>
+    <t>terraform user secret access key</t>
+  </si>
+  <si>
+    <t>terraform user arn</t>
+  </si>
+  <si>
+    <t>Update role trust policy</t>
+  </si>
+  <si>
+    <t>github organization</t>
+  </si>
+  <si>
+    <t>github repository</t>
+  </si>
+  <si>
+    <t>github user token</t>
+  </si>
+  <si>
+    <t>Setup github user and access tokens</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>AWS Setup</t>
+  </si>
+  <si>
+    <t>Github Setup</t>
+  </si>
+  <si>
+    <t>Terraform Setup</t>
   </si>
 </sst>
 </file>
@@ -199,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +463,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -495,6 +603,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -540,9 +657,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -898,44 +1027,201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="263" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="214" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="79" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16" xr:uid="{8570DF8D-DD4D-7C47-BF03-C83D0DEA6A9A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J32" xr:uid="{8570DF8D-DD4D-7C47-BF03-C83D0DEA6A9A}">
       <formula1>"Pass,Fail,Uncertain"</formula1>
     </dataValidation>
   </dataValidations>
